--- a/src/test/resources/exceltestdata.xlsx
+++ b/src/test/resources/exceltestdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
   <si>
     <t>execute</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>3456789788</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -931,7 +934,7 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -984,7 +987,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1090,7 +1093,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>

--- a/src/test/resources/exceltestdata.xlsx
+++ b/src/test/resources/exceltestdata.xlsx
@@ -669,7 +669,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1093,7 +1093,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
